--- a/public/import/blowplast.xlsx
+++ b/public/import/blowplast.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\walt\DP DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakasa\code\php\laravel\blowplast\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A231D-7AA7-4182-9639-51EE0A1E94D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0797C25-B4BC-49BE-953A-5631DC61D1F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{C4A76CFF-2DCB-4E51-AD6C-AC8ADF903E63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{C4A76CFF-2DCB-4E51-AD6C-AC8ADF903E63}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="727">
   <si>
     <t>Customer</t>
   </si>
@@ -2202,6 +2202,24 @@
   </si>
   <si>
     <t>MG</t>
+  </si>
+  <si>
+    <t>Invoice Credit Memo No</t>
+  </si>
+  <si>
+    <t>BP6/SI/000592/2019</t>
+  </si>
+  <si>
+    <t>BP6/SI/000593/2019</t>
+  </si>
+  <si>
+    <t>BP6/SI/000594/2019</t>
+  </si>
+  <si>
+    <t>BP6/SI/000595/2019</t>
+  </si>
+  <si>
+    <t>BP6/SI/000596/2019</t>
   </si>
 </sst>
 </file>
@@ -2616,15 +2634,15 @@
       <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2638,7 +2656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>407</v>
       </c>
@@ -2652,7 +2670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>335</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>394</v>
       </c>
@@ -2680,7 +2698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>359</v>
       </c>
@@ -2694,7 +2712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -2708,7 +2726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>345</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>319</v>
       </c>
@@ -2736,7 +2754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>310</v>
       </c>
@@ -2750,7 +2768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>373</v>
       </c>
@@ -2764,7 +2782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>468</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>389</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>307</v>
       </c>
@@ -2806,7 +2824,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>383</v>
       </c>
@@ -2820,7 +2838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>458</v>
       </c>
@@ -2848,7 +2866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>438</v>
       </c>
@@ -2862,7 +2880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>450</v>
       </c>
@@ -2876,7 +2894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>341</v>
       </c>
@@ -2890,7 +2908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -2904,7 +2922,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -2918,7 +2936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>422</v>
       </c>
@@ -2932,7 +2950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>326</v>
       </c>
@@ -2946,7 +2964,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2960,7 +2978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>461</v>
       </c>
@@ -2974,7 +2992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>308</v>
       </c>
@@ -2988,7 +3006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>398</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>372</v>
       </c>
@@ -3016,7 +3034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>357</v>
       </c>
@@ -3030,7 +3048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>348</v>
       </c>
@@ -3044,7 +3062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>374</v>
       </c>
@@ -3058,7 +3076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>433</v>
       </c>
@@ -3072,7 +3090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>420</v>
       </c>
@@ -3086,7 +3104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>507</v>
       </c>
@@ -3100,7 +3118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>360</v>
       </c>
@@ -3114,7 +3132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>444</v>
       </c>
@@ -3128,7 +3146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>316</v>
       </c>
@@ -3142,7 +3160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>474</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>500</v>
       </c>
@@ -3170,7 +3188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>408</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>462</v>
       </c>
@@ -3198,7 +3216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>413</v>
       </c>
@@ -3212,7 +3230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -3226,7 +3244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>354</v>
       </c>
@@ -3240,7 +3258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>355</v>
       </c>
@@ -3254,7 +3272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>395</v>
       </c>
@@ -3268,7 +3286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>381</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>442</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>488</v>
       </c>
@@ -3310,7 +3328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>503</v>
       </c>
@@ -3324,7 +3342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>424</v>
       </c>
@@ -3338,7 +3356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>400</v>
       </c>
@@ -3352,7 +3370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>367</v>
       </c>
@@ -3366,7 +3384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>336</v>
       </c>
@@ -3380,7 +3398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>473</v>
       </c>
@@ -3394,7 +3412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>349</v>
       </c>
@@ -3408,7 +3426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>301</v>
       </c>
@@ -3422,7 +3440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>457</v>
       </c>
@@ -3436,7 +3454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>439</v>
       </c>
@@ -3450,7 +3468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>393</v>
       </c>
@@ -3464,7 +3482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>364</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>485</v>
       </c>
@@ -3492,7 +3510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>356</v>
       </c>
@@ -3506,7 +3524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>430</v>
       </c>
@@ -3520,7 +3538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>431</v>
       </c>
@@ -3534,7 +3552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>406</v>
       </c>
@@ -3548,7 +3566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>409</v>
       </c>
@@ -3562,7 +3580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>397</v>
       </c>
@@ -3576,7 +3594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>483</v>
       </c>
@@ -3590,7 +3608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>415</v>
       </c>
@@ -3604,7 +3622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>495</v>
       </c>
@@ -3618,7 +3636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>490</v>
       </c>
@@ -3632,7 +3650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>384</v>
       </c>
@@ -3646,7 +3664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>464</v>
       </c>
@@ -3660,7 +3678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>303</v>
       </c>
@@ -3674,7 +3692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>436</v>
       </c>
@@ -3688,7 +3706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>448</v>
       </c>
@@ -3702,7 +3720,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>440</v>
       </c>
@@ -3716,7 +3734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>496</v>
       </c>
@@ -3730,7 +3748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>449</v>
       </c>
@@ -3744,7 +3762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>492</v>
       </c>
@@ -3758,7 +3776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>380</v>
       </c>
@@ -3772,7 +3790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>421</v>
       </c>
@@ -3786,7 +3804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>478</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>480</v>
       </c>
@@ -3814,7 +3832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>482</v>
       </c>
@@ -3828,7 +3846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>333</v>
       </c>
@@ -3842,7 +3860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>499</v>
       </c>
@@ -3856,7 +3874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>441</v>
       </c>
@@ -3870,7 +3888,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>429</v>
       </c>
@@ -3884,7 +3902,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>454</v>
       </c>
@@ -3898,7 +3916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>477</v>
       </c>
@@ -3912,7 +3930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>414</v>
       </c>
@@ -3926,7 +3944,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>412</v>
       </c>
@@ -3940,7 +3958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>472</v>
       </c>
@@ -3954,7 +3972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>379</v>
       </c>
@@ -3968,7 +3986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>434</v>
       </c>
@@ -3982,7 +4000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>456</v>
       </c>
@@ -3996,7 +4014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>353</v>
       </c>
@@ -4010,7 +4028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>418</v>
       </c>
@@ -4024,7 +4042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>324</v>
       </c>
@@ -4038,7 +4056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>417</v>
       </c>
@@ -4052,7 +4070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>366</v>
       </c>
@@ -4066,7 +4084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>339</v>
       </c>
@@ -4080,7 +4098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>463</v>
       </c>
@@ -4094,7 +4112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>435</v>
       </c>
@@ -4108,7 +4126,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>481</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>497</v>
       </c>
@@ -4136,7 +4154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>314</v>
       </c>
@@ -4150,7 +4168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>494</v>
       </c>
@@ -4164,7 +4182,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>351</v>
       </c>
@@ -4178,7 +4196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>361</v>
       </c>
@@ -4192,7 +4210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -4206,7 +4224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>385</v>
       </c>
@@ -4220,7 +4238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>402</v>
       </c>
@@ -4234,7 +4252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>411</v>
       </c>
@@ -4248,7 +4266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>323</v>
       </c>
@@ -4262,7 +4280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>312</v>
       </c>
@@ -4276,7 +4294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>321</v>
       </c>
@@ -4290,7 +4308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>476</v>
       </c>
@@ -4304,7 +4322,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>375</v>
       </c>
@@ -4318,7 +4336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>466</v>
       </c>
@@ -4332,7 +4350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -4346,7 +4364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>358</v>
       </c>
@@ -4360,7 +4378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -4374,7 +4392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>471</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>346</v>
       </c>
@@ -4402,7 +4420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>327</v>
       </c>
@@ -4416,7 +4434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -4430,7 +4448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>470</v>
       </c>
@@ -4444,7 +4462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>396</v>
       </c>
@@ -4458,7 +4476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>489</v>
       </c>
@@ -4472,7 +4490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>387</v>
       </c>
@@ -4486,7 +4504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>479</v>
       </c>
@@ -4500,7 +4518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>21</v>
       </c>
@@ -4514,7 +4532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>403</v>
       </c>
@@ -4528,7 +4546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>469</v>
       </c>
@@ -4542,7 +4560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>423</v>
       </c>
@@ -4556,7 +4574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>315</v>
       </c>
@@ -4570,7 +4588,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>498</v>
       </c>
@@ -4584,7 +4602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>330</v>
       </c>
@@ -4598,7 +4616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>329</v>
       </c>
@@ -4612,7 +4630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>416</v>
       </c>
@@ -4626,7 +4644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>491</v>
       </c>
@@ -4640,7 +4658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>368</v>
       </c>
@@ -4654,7 +4672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>437</v>
       </c>
@@ -4668,7 +4686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>501</v>
       </c>
@@ -4682,7 +4700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>502</v>
       </c>
@@ -4696,7 +4714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>311</v>
       </c>
@@ -4710,7 +4728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>306</v>
       </c>
@@ -4724,7 +4742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>455</v>
       </c>
@@ -4738,7 +4756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>445</v>
       </c>
@@ -4752,7 +4770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>332</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>484</v>
       </c>
@@ -4780,7 +4798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -4794,7 +4812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>451</v>
       </c>
@@ -4808,7 +4826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>376</v>
       </c>
@@ -4822,7 +4840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>318</v>
       </c>
@@ -4836,7 +4854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>304</v>
       </c>
@@ -4850,7 +4868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>371</v>
       </c>
@@ -4864,7 +4882,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>325</v>
       </c>
@@ -4878,7 +4896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>344</v>
       </c>
@@ -4892,7 +4910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>401</v>
       </c>
@@ -4906,7 +4924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>338</v>
       </c>
@@ -4920,7 +4938,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>378</v>
       </c>
@@ -4934,7 +4952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>305</v>
       </c>
@@ -4948,7 +4966,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>317</v>
       </c>
@@ -4962,7 +4980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>432</v>
       </c>
@@ -4976,7 +4994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>350</v>
       </c>
@@ -4990,7 +5008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -5004,7 +5022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>446</v>
       </c>
@@ -5018,7 +5036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>460</v>
       </c>
@@ -5032,7 +5050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -5046,7 +5064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>509</v>
       </c>
@@ -5060,7 +5078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>419</v>
       </c>
@@ -5074,7 +5092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>504</v>
       </c>
@@ -5088,7 +5106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>475</v>
       </c>
@@ -5102,7 +5120,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>465</v>
       </c>
@@ -5116,7 +5134,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>322</v>
       </c>
@@ -5130,7 +5148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>334</v>
       </c>
@@ -5144,7 +5162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>377</v>
       </c>
@@ -5158,7 +5176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>452</v>
       </c>
@@ -5172,7 +5190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>328</v>
       </c>
@@ -5186,7 +5204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>459</v>
       </c>
@@ -5200,7 +5218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>365</v>
       </c>
@@ -5214,7 +5232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>337</v>
       </c>
@@ -5228,7 +5246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>302</v>
       </c>
@@ -5242,7 +5260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>392</v>
       </c>
@@ -5256,7 +5274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>30</v>
       </c>
@@ -5270,7 +5288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>391</v>
       </c>
@@ -5284,7 +5302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>426</v>
       </c>
@@ -5298,7 +5316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>25</v>
       </c>
@@ -5312,7 +5330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>369</v>
       </c>
@@ -5326,7 +5344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>320</v>
       </c>
@@ -5340,7 +5358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>382</v>
       </c>
@@ -5354,7 +5372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>342</v>
       </c>
@@ -5368,7 +5386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>17</v>
       </c>
@@ -5382,7 +5400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>27</v>
       </c>
@@ -5396,7 +5414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>390</v>
       </c>
@@ -5410,7 +5428,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>404</v>
       </c>
@@ -5424,7 +5442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>386</v>
       </c>
@@ -5438,7 +5456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>363</v>
       </c>
@@ -5452,7 +5470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>340</v>
       </c>
@@ -5466,7 +5484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -5480,7 +5498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>493</v>
       </c>
@@ -5494,7 +5512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>352</v>
       </c>
@@ -5508,7 +5526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>447</v>
       </c>
@@ -5522,7 +5540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>467</v>
       </c>
@@ -5536,7 +5554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>505</v>
       </c>
@@ -5550,7 +5568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>506</v>
       </c>
@@ -5564,7 +5582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>428</v>
       </c>
@@ -5578,7 +5596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>486</v>
       </c>
@@ -5592,7 +5610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>347</v>
       </c>
@@ -5606,7 +5624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>370</v>
       </c>
@@ -5620,7 +5638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>313</v>
       </c>
@@ -5634,7 +5652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>487</v>
       </c>
@@ -5648,7 +5666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>443</v>
       </c>
@@ -5662,7 +5680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>24</v>
       </c>
@@ -5676,7 +5694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>388</v>
       </c>
@@ -5690,7 +5708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>508</v>
       </c>
@@ -5704,7 +5722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>405</v>
       </c>
@@ -5718,7 +5736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>453</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>427</v>
       </c>
@@ -5746,7 +5764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>425</v>
       </c>
@@ -5760,7 +5778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>362</v>
       </c>
@@ -6018,15 +6036,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>704</v>
       </c>
@@ -6040,7 +6058,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6067,12 +6085,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>707</v>
       </c>
@@ -6080,7 +6098,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>709</v>
       </c>
@@ -6088,7 +6106,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>712</v>
       </c>
@@ -6096,7 +6114,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>720</v>
       </c>
@@ -6113,18 +6131,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D07C6B-5B67-4197-A3E0-A2719DEF196A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>714</v>
       </c>
@@ -6135,7 +6153,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>709</v>
       </c>
@@ -6146,7 +6164,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>712</v>
       </c>
@@ -6157,7 +6175,7 @@
         <v>36.42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>720</v>
       </c>
@@ -6182,16 +6200,16 @@
       <selection activeCell="E83" sqref="E83:E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -6211,7 +6229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6228,7 +6246,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -6245,7 +6263,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -6262,7 +6280,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -6279,7 +6297,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -6296,7 +6314,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -6313,7 +6331,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -6330,7 +6348,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -6347,7 +6365,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -6364,7 +6382,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -6381,7 +6399,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -6398,7 +6416,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -6415,7 +6433,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -6432,7 +6450,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -6449,7 +6467,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -6466,7 +6484,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -6483,7 +6501,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -6500,7 +6518,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -6517,7 +6535,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -6534,7 +6552,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -6551,7 +6569,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -6568,7 +6586,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -6585,7 +6603,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -6602,7 +6620,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -6619,7 +6637,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -6636,7 +6654,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -6653,7 +6671,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -6670,7 +6688,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -6687,7 +6705,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -6704,7 +6722,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -6738,7 +6756,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -6755,7 +6773,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -6772,7 +6790,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -6789,7 +6807,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -6806,7 +6824,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -6823,7 +6841,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -6840,7 +6858,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -6857,7 +6875,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -6874,7 +6892,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -6891,7 +6909,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -6908,7 +6926,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -6925,7 +6943,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -6942,7 +6960,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>554</v>
       </c>
@@ -6959,7 +6977,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>555</v>
       </c>
@@ -6976,7 +6994,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>556</v>
       </c>
@@ -6993,7 +7011,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>557</v>
       </c>
@@ -7010,7 +7028,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>566</v>
       </c>
@@ -7027,7 +7045,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>567</v>
       </c>
@@ -7044,7 +7062,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>568</v>
       </c>
@@ -7061,7 +7079,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>569</v>
       </c>
@@ -7078,7 +7096,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>570</v>
       </c>
@@ -7095,7 +7113,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>571</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>572</v>
       </c>
@@ -7129,7 +7147,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>573</v>
       </c>
@@ -7146,7 +7164,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>574</v>
       </c>
@@ -7163,7 +7181,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>575</v>
       </c>
@@ -7180,7 +7198,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>576</v>
       </c>
@@ -7197,7 +7215,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>577</v>
       </c>
@@ -7214,7 +7232,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>578</v>
       </c>
@@ -7231,7 +7249,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>579</v>
       </c>
@@ -7248,7 +7266,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>580</v>
       </c>
@@ -7265,7 +7283,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>581</v>
       </c>
@@ -7282,7 +7300,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>582</v>
       </c>
@@ -7299,7 +7317,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>583</v>
       </c>
@@ -7316,7 +7334,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>584</v>
       </c>
@@ -7333,7 +7351,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>585</v>
       </c>
@@ -7350,7 +7368,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>586</v>
       </c>
@@ -7367,7 +7385,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>587</v>
       </c>
@@ -7384,7 +7402,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>588</v>
       </c>
@@ -7401,7 +7419,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>605</v>
       </c>
@@ -7418,7 +7436,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>606</v>
       </c>
@@ -7435,7 +7453,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>607</v>
       </c>
@@ -7452,7 +7470,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>613</v>
       </c>
@@ -7469,7 +7487,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>614</v>
       </c>
@@ -7486,7 +7504,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>615</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>616</v>
       </c>
@@ -7520,7 +7538,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>617</v>
       </c>
@@ -7537,7 +7555,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>618</v>
       </c>
@@ -7554,7 +7572,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>619</v>
       </c>
@@ -7571,7 +7589,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>670</v>
       </c>
@@ -7585,7 +7603,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>672</v>
       </c>
@@ -7599,7 +7617,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>673</v>
       </c>
@@ -7613,7 +7631,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>674</v>
       </c>
@@ -7627,7 +7645,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>675</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>676</v>
       </c>
@@ -7655,7 +7673,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>677</v>
       </c>
@@ -7669,7 +7687,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>678</v>
       </c>
@@ -7683,7 +7701,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>679</v>
       </c>
@@ -7697,7 +7715,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>680</v>
       </c>
@@ -7711,7 +7729,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>681</v>
       </c>
@@ -7725,7 +7743,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>682</v>
       </c>
@@ -7739,7 +7757,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>683</v>
       </c>
@@ -7753,7 +7771,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>684</v>
       </c>
@@ -7767,7 +7785,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>685</v>
       </c>
@@ -7781,7 +7799,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>686</v>
       </c>
@@ -7795,7 +7813,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>687</v>
       </c>
@@ -7809,7 +7827,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>688</v>
       </c>
@@ -7831,749 +7849,807 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F38ED-1BEA-4AF7-9567-4E10A24C5C69}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B1" t="s">
         <v>620</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>621</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>623</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>622</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>624</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>625</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>626</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>627</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>628</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>629</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>630</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C2" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="6">
-        <v>43478</v>
       </c>
       <c r="G2" s="6">
         <v>43478</v>
       </c>
       <c r="H2" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I2" s="6">
         <v>43843</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
       <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
         <v>645</v>
       </c>
-      <c r="L2" s="7">
+      <c r="M2" s="7">
         <v>2217.6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C3" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>321</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F3" s="6">
-        <v>43478</v>
       </c>
       <c r="G3" s="6">
         <v>43478</v>
       </c>
       <c r="H3" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I3" s="6">
         <v>43843</v>
       </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
         <v>645</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>51600</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F4" s="6">
-        <v>43478</v>
       </c>
       <c r="G4" s="6">
         <v>43478</v>
       </c>
       <c r="H4" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I4" s="6">
         <v>43843</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
       <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
         <v>645</v>
       </c>
-      <c r="L4" s="7">
+      <c r="M4" s="7">
         <v>53930.400000000001</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" s="6">
-        <v>43478</v>
       </c>
       <c r="G5" s="6">
         <v>43478</v>
       </c>
       <c r="H5" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I5" s="6">
         <v>43843</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
       <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
         <v>645</v>
       </c>
-      <c r="L5" s="7">
+      <c r="M5" s="7">
         <v>28800</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F6" s="6">
-        <v>43478</v>
       </c>
       <c r="G6" s="6">
         <v>43478</v>
       </c>
       <c r="H6" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I6" s="6">
         <v>43843</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
       <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
         <v>645</v>
       </c>
-      <c r="L6" s="7">
+      <c r="M6" s="7">
         <v>52800</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" s="6">
-        <v>43478</v>
       </c>
       <c r="G7" s="6">
         <v>43478</v>
       </c>
       <c r="H7" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I7" s="6">
         <v>43843</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
       <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
         <v>645</v>
       </c>
-      <c r="L7" s="7">
+      <c r="M7" s="7">
         <v>119952</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F8" s="6">
-        <v>43478</v>
       </c>
       <c r="G8" s="6">
         <v>43478</v>
       </c>
       <c r="H8" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I8" s="6">
         <v>43843</v>
       </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
       <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
         <v>645</v>
       </c>
-      <c r="L8" s="7">
+      <c r="M8" s="7">
         <v>15360</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>323</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F9" s="6">
-        <v>43478</v>
       </c>
       <c r="G9" s="6">
         <v>43478</v>
       </c>
       <c r="H9" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I9" s="6">
         <v>43843</v>
       </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
       <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
         <v>645</v>
       </c>
-      <c r="L9" s="7">
+      <c r="M9" s="7">
         <v>5440</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>323</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F10" s="6">
-        <v>43478</v>
       </c>
       <c r="G10" s="6">
         <v>43478</v>
       </c>
       <c r="H10" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I10" s="6">
         <v>43843</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
       <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
         <v>645</v>
       </c>
-      <c r="L10" s="7">
+      <c r="M10" s="7">
         <v>16320</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>323</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F11" s="6">
-        <v>43478</v>
       </c>
       <c r="G11" s="6">
         <v>43478</v>
       </c>
       <c r="H11" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I11" s="6">
         <v>43843</v>
       </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
       <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
         <v>645</v>
       </c>
-      <c r="L11" s="7">
+      <c r="M11" s="7">
         <v>291040</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F12" s="6">
-        <v>43478</v>
       </c>
       <c r="G12" s="6">
         <v>43478</v>
       </c>
       <c r="H12" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I12" s="6">
         <v>43843</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
       <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
         <v>645</v>
       </c>
-      <c r="L12" s="7">
+      <c r="M12" s="7">
         <v>14300</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F13" s="6">
-        <v>43478</v>
       </c>
       <c r="G13" s="6">
         <v>43478</v>
       </c>
       <c r="H13" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I13" s="6">
         <v>43843</v>
       </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
       <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
         <v>645</v>
       </c>
-      <c r="L13" s="7">
+      <c r="M13" s="7">
         <v>50600</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>320</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>320</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F14" s="6">
-        <v>43478</v>
       </c>
       <c r="G14" s="6">
         <v>43478</v>
       </c>
       <c r="H14" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I14" s="6">
         <v>43843</v>
       </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
       <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
         <v>645</v>
       </c>
-      <c r="L14" s="7">
+      <c r="M14" s="7">
         <v>44928</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F15" s="6">
-        <v>43478</v>
       </c>
       <c r="G15" s="6">
         <v>43478</v>
       </c>
       <c r="H15" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I15" s="6">
         <v>43843</v>
       </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
       <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
         <v>645</v>
       </c>
-      <c r="L15" s="7">
+      <c r="M15" s="7">
         <v>263900</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>309</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>309</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F16" s="6">
-        <v>43478</v>
       </c>
       <c r="G16" s="6">
         <v>43478</v>
       </c>
       <c r="H16" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I16" s="6">
         <v>43843</v>
       </c>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
       <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
         <v>645</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>230565</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="6">
-        <v>43478</v>
       </c>
       <c r="G17" s="6">
         <v>43478</v>
       </c>
       <c r="H17" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I17" s="6">
         <v>43843</v>
       </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
       <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
         <v>645</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>170000</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>306</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>306</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="F18" s="6">
-        <v>43478</v>
       </c>
       <c r="G18" s="6">
         <v>43478</v>
       </c>
       <c r="H18" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I18" s="6">
         <v>43843</v>
       </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
       <c r="J18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
         <v>645</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>20000</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>350</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>350</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F19" s="6">
-        <v>43478</v>
       </c>
       <c r="G19" s="6">
         <v>43478</v>
       </c>
       <c r="H19" s="6">
+        <v>43478</v>
+      </c>
+      <c r="I19" s="6">
         <v>43843</v>
       </c>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
       <c r="J19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
         <v>645</v>
       </c>
-      <c r="L19" s="7">
+      <c r="M19" s="7">
         <v>185619.6</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>646</v>
       </c>
     </row>
@@ -8584,928 +8660,986 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596A27CD-9F1C-45D2-B096-30A76D530EF4}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2" t="s">
         <v>670</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>720</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>3.08</v>
       </c>
-      <c r="K2" s="7">
+      <c r="L2" s="7">
         <v>2217.6</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>645</v>
       </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
       <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>646</v>
-      </c>
-      <c r="P2" s="6">
-        <v>43478</v>
       </c>
       <c r="Q2" s="6">
         <v>43478</v>
       </c>
       <c r="R2" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S2" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D3" t="s">
         <v>672</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>41</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <v>4300</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>12</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>51600</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>645</v>
       </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
       <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
         <v>646</v>
-      </c>
-      <c r="P3" s="6">
-        <v>43478</v>
       </c>
       <c r="Q3" s="6">
         <v>43478</v>
       </c>
       <c r="R3" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S3" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" t="s">
         <v>673</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>31</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>5520</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>9.77</v>
       </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
         <v>53930.400000000001</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>645</v>
       </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
       <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
         <v>646</v>
-      </c>
-      <c r="P4" s="6">
-        <v>43478</v>
       </c>
       <c r="Q4" s="6">
         <v>43478</v>
       </c>
       <c r="R4" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S4" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D5" t="s">
         <v>674</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.32</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>15000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1.92</v>
       </c>
-      <c r="K5" s="7">
+      <c r="L5" s="7">
         <v>28800</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>645</v>
       </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
       <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
         <v>646</v>
-      </c>
-      <c r="P5" s="6">
-        <v>43478</v>
       </c>
       <c r="Q5" s="6">
         <v>43478</v>
       </c>
       <c r="R5" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S5" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D6" t="s">
         <v>675</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>30</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>5500</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>9.6</v>
       </c>
-      <c r="K6" s="7">
+      <c r="L6" s="7">
         <v>52800</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>645</v>
       </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
       <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
         <v>646</v>
-      </c>
-      <c r="P6" s="6">
-        <v>43478</v>
       </c>
       <c r="Q6" s="6">
         <v>43478</v>
       </c>
       <c r="R6" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S6" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D7" t="s">
         <v>676</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>8</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>58800</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>2.04</v>
       </c>
-      <c r="K7" s="7">
+      <c r="L7" s="7">
         <v>119952</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>645</v>
       </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
       <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
         <v>646</v>
-      </c>
-      <c r="P7" s="6">
-        <v>43478</v>
       </c>
       <c r="Q7" s="6">
         <v>43478</v>
       </c>
       <c r="R7" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S7" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>677</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>0.26</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>12000</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1.28</v>
       </c>
-      <c r="K8" s="7">
+      <c r="L8" s="7">
         <v>15360</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>645</v>
       </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
       <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
         <v>646</v>
-      </c>
-      <c r="P8" s="6">
-        <v>43478</v>
       </c>
       <c r="Q8" s="6">
         <v>43478</v>
       </c>
       <c r="R8" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S8" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>678</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>2720</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="7">
+      <c r="L9" s="7">
         <v>5440</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>645</v>
       </c>
-      <c r="N9" t="s">
-        <v>34</v>
-      </c>
       <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
         <v>646</v>
-      </c>
-      <c r="P9" s="6">
-        <v>43478</v>
       </c>
       <c r="Q9" s="6">
         <v>43478</v>
       </c>
       <c r="R9" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S9" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>679</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>19</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>0.32</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>2720</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>6</v>
       </c>
-      <c r="K10" s="7">
+      <c r="L10" s="7">
         <v>16320</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>645</v>
       </c>
-      <c r="N10" t="s">
-        <v>34</v>
-      </c>
       <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s">
         <v>646</v>
-      </c>
-      <c r="P10" s="6">
-        <v>43478</v>
       </c>
       <c r="Q10" s="6">
         <v>43478</v>
       </c>
       <c r="R10" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S10" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>680</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>485</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>0.22</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>2720</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>107</v>
       </c>
-      <c r="K11" s="7">
+      <c r="L11" s="7">
         <v>291040</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>645</v>
       </c>
-      <c r="N11" t="s">
-        <v>34</v>
-      </c>
       <c r="O11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" t="s">
         <v>646</v>
-      </c>
-      <c r="P11" s="6">
-        <v>43478</v>
       </c>
       <c r="Q11" s="6">
         <v>43478</v>
       </c>
       <c r="R11" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S11" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>681</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>0.32</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>5500</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>2.6</v>
       </c>
-      <c r="K12" s="7">
+      <c r="L12" s="7">
         <v>14300</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>645</v>
       </c>
-      <c r="N12" t="s">
-        <v>34</v>
-      </c>
       <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
         <v>646</v>
-      </c>
-      <c r="P12" s="6">
-        <v>43478</v>
       </c>
       <c r="Q12" s="6">
         <v>43478</v>
       </c>
       <c r="R12" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S12" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>682</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>0.38</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>22000</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K13" s="7">
+      <c r="L13" s="7">
         <v>50600</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>645</v>
       </c>
-      <c r="N13" t="s">
-        <v>34</v>
-      </c>
       <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
         <v>646</v>
-      </c>
-      <c r="P13" s="6">
-        <v>43478</v>
       </c>
       <c r="Q13" s="6">
         <v>43478</v>
       </c>
       <c r="R13" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S13" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>683</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>11</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>0.27</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>14976</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>3</v>
       </c>
-      <c r="K14" s="7">
+      <c r="L14" s="7">
         <v>44928</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>645</v>
       </c>
-      <c r="N14" t="s">
-        <v>34</v>
-      </c>
       <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
         <v>646</v>
-      </c>
-      <c r="P14" s="6">
-        <v>43478</v>
       </c>
       <c r="Q14" s="6">
         <v>43478</v>
       </c>
       <c r="R14" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S14" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>684</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>10</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>0.75</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>35000</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>7.54</v>
       </c>
-      <c r="K15" s="7">
+      <c r="L15" s="7">
         <v>263900</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>645</v>
       </c>
-      <c r="N15" t="s">
-        <v>34</v>
-      </c>
       <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s">
         <v>646</v>
-      </c>
-      <c r="P15" s="6">
-        <v>43478</v>
       </c>
       <c r="Q15" s="6">
         <v>43478</v>
       </c>
       <c r="R15" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S15" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>685</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>19</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>0.43</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>28500</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>8.09</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L16" s="7">
         <v>230565</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>645</v>
       </c>
-      <c r="N16" t="s">
-        <v>34</v>
-      </c>
       <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s">
         <v>646</v>
-      </c>
-      <c r="P16" s="6">
-        <v>43478</v>
       </c>
       <c r="Q16" s="6">
         <v>43478</v>
       </c>
       <c r="R16" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S16" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>686</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>20</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>0.42</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <v>20000</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>8.5</v>
       </c>
-      <c r="K17" s="7">
+      <c r="L17" s="7">
         <v>170000</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>645</v>
       </c>
-      <c r="N17" t="s">
-        <v>34</v>
-      </c>
       <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s">
         <v>646</v>
-      </c>
-      <c r="P17" s="6">
-        <v>43478</v>
       </c>
       <c r="Q17" s="6">
         <v>43478</v>
       </c>
       <c r="R17" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S17" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>687</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>0.33</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>20000</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="K18" s="7">
+      <c r="L18" s="7">
         <v>20000</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>645</v>
       </c>
-      <c r="N18" t="s">
-        <v>34</v>
-      </c>
       <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s">
         <v>646</v>
-      </c>
-      <c r="P18" s="6">
-        <v>43478</v>
       </c>
       <c r="Q18" s="6">
         <v>43478</v>
       </c>
       <c r="R18" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S18" s="6">
         <v>43843</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>688</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>900</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>0.22</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>918</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>202.2</v>
       </c>
-      <c r="K19" s="7">
+      <c r="L19" s="7">
         <v>185619.6</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>645</v>
       </c>
-      <c r="N19" t="s">
-        <v>34</v>
-      </c>
       <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="s">
         <v>646</v>
-      </c>
-      <c r="P19" s="6">
-        <v>43478</v>
       </c>
       <c r="Q19" s="6">
         <v>43478</v>
       </c>
       <c r="R19" s="6">
+        <v>43478</v>
+      </c>
+      <c r="S19" s="6">
         <v>43843</v>
       </c>
     </row>
@@ -9519,20 +9653,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6ED844-2F02-48F1-82D4-6AA8C2E00D07}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>695</v>
       </c>
@@ -9571,18 +9706,18 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>703</v>
       </c>
